--- a/wcse2seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcse2seleniumproject/data/ActiTimeTestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="userdata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>USERNAME</t>
   </si>
@@ -50,6 +51,30 @@
   </si>
   <si>
     <t>mana_ger</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>usn1</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -438,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +550,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>